--- a/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>3235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>891</v>
+        <v>542</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10207</v>
+        <v>10505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004445311060999704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00122438276395546</v>
+        <v>0.0007450884201970825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01402578284131813</v>
+        <v>0.01443603365402702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>3235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>540</v>
+        <v>820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10586</v>
+        <v>10548</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002294161567516455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0003826709564368862</v>
+        <v>0.000581300372275539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007507644029740542</v>
+        <v>0.007480987777342379</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>7563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3803</v>
+        <v>3322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13655</v>
+        <v>13662</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01108431507442224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005574074988311016</v>
+        <v>0.004868809389911534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02001142013719824</v>
+        <v>0.02002292782267938</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -825,19 +825,19 @@
         <v>2641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6513</v>
+        <v>6108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003628868798379551</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001374068950338848</v>
+        <v>0.001318848376113736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008950451452865958</v>
+        <v>0.00839378323979291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -846,19 +846,19 @@
         <v>10204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5726</v>
+        <v>5548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17401</v>
+        <v>17042</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.007236665701751725</v>
+        <v>0.007236665701751727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004060719524962095</v>
+        <v>0.003934937834989977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01234059298016852</v>
+        <v>0.0120859169555124</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>42063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29868</v>
+        <v>29949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61744</v>
+        <v>59789</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06164460482859699</v>
+        <v>0.06164460482859698</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04377291751585891</v>
+        <v>0.0438919759505671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09048860435834223</v>
+        <v>0.0876240642175066</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -896,19 +896,19 @@
         <v>25501</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18287</v>
+        <v>18257</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35468</v>
+        <v>35379</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03504332665048845</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0251299160355077</v>
+        <v>0.0250882324041759</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04874031057951583</v>
+        <v>0.04861677386340107</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -917,19 +917,19 @@
         <v>67564</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53781</v>
+        <v>51294</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88321</v>
+        <v>85582</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04791606497939545</v>
+        <v>0.04791606497939546</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03814120162781106</v>
+        <v>0.03637803382643471</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.062637382602754</v>
+        <v>0.06069467664733899</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>131926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112824</v>
+        <v>111392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157308</v>
+        <v>151039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1933438292959649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1653494852172244</v>
+        <v>0.1632499625122036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.230542131090794</v>
+        <v>0.2213543573776872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>253</v>
@@ -967,19 +967,19 @@
         <v>127941</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111755</v>
+        <v>112915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143752</v>
+        <v>143451</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1758147513460737</v>
+        <v>0.1758147513460738</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1535728544058592</v>
+        <v>0.155166429326592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.197542018453245</v>
+        <v>0.1971285508176885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>404</v>
@@ -988,19 +988,19 @@
         <v>259867</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>231962</v>
+        <v>235713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286464</v>
+        <v>287584</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1842973224498059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1645075425582852</v>
+        <v>0.1671677046830112</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2031602475956404</v>
+        <v>0.2039546534000399</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>500787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>475100</v>
+        <v>475045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>523968</v>
+        <v>523654</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7339272508010161</v>
+        <v>0.7339272508010158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.696281075745943</v>
+        <v>0.6962005205458798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.767899247101129</v>
+        <v>0.7674397903899929</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>928</v>
@@ -1038,19 +1038,19 @@
         <v>568385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>551471</v>
+        <v>549712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>586504</v>
+        <v>585097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7810677421440584</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7578246525210116</v>
+        <v>0.7554087963301233</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8059669981454977</v>
+        <v>0.8040344062352216</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1451</v>
@@ -1059,19 +1059,19 @@
         <v>1069171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1039089</v>
+        <v>1037508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1099157</v>
+        <v>1096181</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7582557853015305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7369216225308101</v>
+        <v>0.7358000990884637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7795215080497667</v>
+        <v>0.7774113567682404</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>4917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1200</v>
+        <v>1412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12110</v>
+        <v>11497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004735451426005303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001155695047202968</v>
+        <v>0.001359746907394001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01166308367433766</v>
+        <v>0.0110727102847524</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1184,19 +1184,19 @@
         <v>2138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6384</v>
+        <v>5736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0020055007828479</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0006399789302545212</v>
+        <v>0.0006478641480837982</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005988760309857043</v>
+        <v>0.005380707956805361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1205,19 +1205,19 @@
         <v>7055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2917</v>
+        <v>2948</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14495</v>
+        <v>13882</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00335247908782417</v>
+        <v>0.003352479087824171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001386108016213919</v>
+        <v>0.001401055375868341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006887774333116815</v>
+        <v>0.006596448926331409</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>11011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6315</v>
+        <v>6228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18799</v>
+        <v>18434</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01060502939347992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006081811965900036</v>
+        <v>0.005998080029100239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01810487906739222</v>
+        <v>0.01775309829687453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1255,19 +1255,19 @@
         <v>7610</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3716</v>
+        <v>3652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13804</v>
+        <v>13526</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.007138254565610493</v>
+        <v>0.007138254565610494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003485987883821398</v>
+        <v>0.003425409403727488</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01294810861333828</v>
+        <v>0.01268769601416835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1276,19 +1276,19 @@
         <v>18621</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12121</v>
+        <v>11911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27816</v>
+        <v>28089</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.008848787498900865</v>
+        <v>0.008848787498900867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005759835568189656</v>
+        <v>0.005660280719059024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01321780917882873</v>
+        <v>0.01334793861741999</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>62111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45658</v>
+        <v>46872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80698</v>
+        <v>82088</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05981824529696177</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04397229714305147</v>
+        <v>0.04514216550434819</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07771979068004234</v>
+        <v>0.07905778684938998</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -1326,19 +1326,19 @@
         <v>39518</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30451</v>
+        <v>30287</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50848</v>
+        <v>51715</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03706843411135936</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02856357058566521</v>
+        <v>0.02840958285123604</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04769678412598856</v>
+        <v>0.04850996905065446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>114</v>
@@ -1347,19 +1347,19 @@
         <v>101629</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83630</v>
+        <v>82211</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123482</v>
+        <v>121518</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04829336309903926</v>
+        <v>0.04829336309903928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03974060709809962</v>
+        <v>0.03906626378682704</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05867817055255434</v>
+        <v>0.05774497199873683</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>232191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>201139</v>
+        <v>203852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>262364</v>
+        <v>264040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2236201777995704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1937150210994312</v>
+        <v>0.1963271948444388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2526800602259503</v>
+        <v>0.2542935513344472</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>368</v>
@@ -1397,19 +1397,19 @@
         <v>232782</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>210317</v>
+        <v>212719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>255910</v>
+        <v>259412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2183550267496542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1972825828341488</v>
+        <v>0.1995351874830826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2400497079655364</v>
+        <v>0.2433340695986055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>584</v>
@@ -1418,19 +1418,19 @@
         <v>464973</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>429492</v>
+        <v>431513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>501436</v>
+        <v>508155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.220952892119285</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2040923323303001</v>
+        <v>0.2050529912860226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2382798704020601</v>
+        <v>0.2414727985364303</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>728096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>696499</v>
+        <v>694725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>765726</v>
+        <v>760881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7012210960839826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6707905605398756</v>
+        <v>0.669081928503013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7374616458968136</v>
+        <v>0.7327959098873494</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1071</v>
@@ -1468,19 +1468,19 @@
         <v>784024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>757376</v>
+        <v>757420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>808116</v>
+        <v>807392</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7354327837905281</v>
+        <v>0.7354327837905282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7104361093825488</v>
+        <v>0.710477709542309</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7580308916621689</v>
+        <v>0.7573526340489051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1738</v>
@@ -1489,19 +1489,19 @@
         <v>1512121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1469424</v>
+        <v>1467956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1549122</v>
+        <v>1553287</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7185524781949504</v>
+        <v>0.7185524781949507</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6982631381799512</v>
+        <v>0.6975654201539482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7361349537131339</v>
+        <v>0.7381142816795813</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9221</v>
+        <v>9143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004260776422041399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001048656996901705</v>
+        <v>0.001031706590635212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01160717197496355</v>
+        <v>0.01150803552759396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1614,19 +1614,19 @@
         <v>3562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1182</v>
+        <v>1032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9670</v>
+        <v>9140</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004410662876477772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001463328777281544</v>
+        <v>0.001278054314439333</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0119730792356634</v>
+        <v>0.01131746925778374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1635,19 +1635,19 @@
         <v>6947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2825</v>
+        <v>2809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14433</v>
+        <v>13822</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004336334604713288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001763455249230464</v>
+        <v>0.001753304534395835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009008864180241272</v>
+        <v>0.008627464917566073</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>10450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4864</v>
+        <v>4808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20672</v>
+        <v>20707</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01315372380877116</v>
+        <v>0.01315372380877117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006122973238330561</v>
+        <v>0.006052262144911075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0260203473110169</v>
+        <v>0.02606445544140053</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1685,19 +1685,19 @@
         <v>5231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2117</v>
+        <v>2290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11031</v>
+        <v>11697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006477399248766465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00262137658540978</v>
+        <v>0.002835847521886183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01365907015479311</v>
+        <v>0.01448316877565188</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1706,19 +1706,19 @@
         <v>15681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8447</v>
+        <v>9111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25682</v>
+        <v>26940</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.009788169846082755</v>
+        <v>0.009788169846082754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005272807776548777</v>
+        <v>0.005686942304970674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01603041822242261</v>
+        <v>0.01681582584993276</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>53180</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37691</v>
+        <v>38874</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74187</v>
+        <v>74007</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06693847169208812</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04744177677110346</v>
+        <v>0.04893145266595415</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09338031043640464</v>
+        <v>0.09315317552145219</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -1756,19 +1756,19 @@
         <v>34379</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24419</v>
+        <v>24531</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48270</v>
+        <v>49354</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0425689709911329</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03023610538697568</v>
+        <v>0.03037544097406364</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05976906070640316</v>
+        <v>0.06111167165725433</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -1777,19 +1777,19 @@
         <v>87559</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68909</v>
+        <v>70509</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>113536</v>
+        <v>115187</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05465373794139999</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0430126860018389</v>
+        <v>0.04401094448731316</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07086820404227279</v>
+        <v>0.07189913510926521</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>234561</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205801</v>
+        <v>203129</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266927</v>
+        <v>268737</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2952449535880498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2590447352642638</v>
+        <v>0.2556818918932936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.335985290749559</v>
+        <v>0.3382636079848554</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>233</v>
@@ -1827,19 +1827,19 @@
         <v>178924</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>157896</v>
+        <v>159086</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>201442</v>
+        <v>200482</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2215487492229959</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1955110386791575</v>
+        <v>0.1969844485741927</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2494309133609295</v>
+        <v>0.2482414983186098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>423</v>
@@ -1848,19 +1848,19 @@
         <v>413485</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>377398</v>
+        <v>377773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>454834</v>
+        <v>450278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2580944899749196</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2355690138796034</v>
+        <v>0.2358033283963606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2839041056965704</v>
+        <v>0.2810607043429902</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>492885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>459548</v>
+        <v>459433</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>522883</v>
+        <v>523211</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6204020744890495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.578439989705016</v>
+        <v>0.5782947419117812</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6581605617874199</v>
+        <v>0.658574140438282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>755</v>
@@ -1898,19 +1898,19 @@
         <v>585510</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>562323</v>
+        <v>561829</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>607819</v>
+        <v>607797</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.724994217660627</v>
+        <v>0.7249942176606272</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6962835569974144</v>
+        <v>0.6956712540756539</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7526177410562302</v>
+        <v>0.752589861965404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1186</v>
@@ -1919,19 +1919,19 @@
         <v>1078396</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1035757</v>
+        <v>1037307</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1118815</v>
+        <v>1116804</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6731272676328843</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6465123573183799</v>
+        <v>0.6474798093585924</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6983567251724891</v>
+        <v>0.697101210794683</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>3078</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>804</v>
+        <v>677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7963</v>
+        <v>7259</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003131136894426386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0008175011383954363</v>
+        <v>0.0006890104273388774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.00810113703056869</v>
+        <v>0.007385210951707561</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2044,19 +2044,19 @@
         <v>4784</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1841</v>
+        <v>1704</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11567</v>
+        <v>11376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004303148760854181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001656390902610195</v>
+        <v>0.001532457432411836</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01040494334949565</v>
+        <v>0.01023344657332272</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2065,19 +2065,19 @@
         <v>7861</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4073</v>
+        <v>3885</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15423</v>
+        <v>15492</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003753149222395026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0019446321435636</v>
+        <v>0.001854852181770054</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007363015918728515</v>
+        <v>0.007396157731205991</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>13854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7398</v>
+        <v>7665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23093</v>
+        <v>22787</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01409372901131392</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007526631443509592</v>
+        <v>0.007797329256477289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02349268331425359</v>
+        <v>0.02318225063067529</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2115,19 +2115,19 @@
         <v>6043</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2516</v>
+        <v>2414</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12075</v>
+        <v>12457</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005436133983245351</v>
+        <v>0.00543613398324535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002263507082243308</v>
+        <v>0.0021718842145327</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01086225155656716</v>
+        <v>0.01120531849121924</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -2136,19 +2136,19 @@
         <v>19897</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12178</v>
+        <v>12009</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30027</v>
+        <v>30100</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009498953998982229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005813846162030603</v>
+        <v>0.00573321068953499</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01433533691801065</v>
+        <v>0.01437007339657802</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>52836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39237</v>
+        <v>39093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70732</v>
+        <v>70034</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05375195791415504</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03991652289804237</v>
+        <v>0.03977019075681484</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07195767233397152</v>
+        <v>0.07124797896568157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>89</v>
@@ -2186,19 +2186,19 @@
         <v>68891</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55369</v>
+        <v>53341</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85685</v>
+        <v>85476</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06197105290871263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04980741965707736</v>
+        <v>0.0479828186303107</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07707727821529646</v>
+        <v>0.07688972765965381</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>137</v>
@@ -2207,19 +2207,19 @@
         <v>121728</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>101647</v>
+        <v>103735</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143207</v>
+        <v>145551</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05811401136924702</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04852710474592307</v>
+        <v>0.04952417168901999</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06836836982852351</v>
+        <v>0.06948762003902435</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>173510</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>148476</v>
+        <v>150522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203939</v>
+        <v>201206</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1765163638402551</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1510490591475208</v>
+        <v>0.1531299396694787</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2074725116641272</v>
+        <v>0.2046925262390316</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>284</v>
@@ -2257,19 +2257,19 @@
         <v>204928</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>182777</v>
+        <v>182101</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232122</v>
+        <v>230453</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1843418626606969</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1644166976070671</v>
+        <v>0.1638084481413616</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.20880493856055</v>
+        <v>0.2073032857348569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>456</v>
@@ -2278,19 +2278,19 @@
         <v>378437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>344747</v>
+        <v>341550</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>411534</v>
+        <v>413239</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1806695271982805</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1645853841649952</v>
+        <v>0.1630593424480586</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1964699975449662</v>
+        <v>0.197284287974793</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>739690</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>708515</v>
+        <v>709199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767032</v>
+        <v>767682</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7525068123398495</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7207912933884555</v>
+        <v>0.7214875264090802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7803221828798051</v>
+        <v>0.7809835323588122</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1164</v>
@@ -2328,19 +2328,19 @@
         <v>827025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>796977</v>
+        <v>801712</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>850717</v>
+        <v>852457</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7439478016864909</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7169179027045612</v>
+        <v>0.7211776829142084</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7652596195582516</v>
+        <v>0.7668250283230369</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1927</v>
@@ -2349,19 +2349,19 @@
         <v>1566715</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1523485</v>
+        <v>1523539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1605179</v>
+        <v>1605419</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7479643582110951</v>
+        <v>0.7479643582110952</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7273256740207446</v>
+        <v>0.72735173602783</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7663270439055195</v>
+        <v>0.7664419220250981</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>11380</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5642</v>
+        <v>5590</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20346</v>
+        <v>20065</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.003253134929890057</v>
+        <v>0.003253134929890056</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001613000546379525</v>
+        <v>0.001598145267696616</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005816307782538762</v>
+        <v>0.005735936321409812</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2474,19 +2474,19 @@
         <v>13719</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7779</v>
+        <v>8040</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24129</v>
+        <v>22836</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.003694706333015557</v>
+        <v>0.003694706333015558</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002095064826375334</v>
+        <v>0.002165281776242832</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006498537086019998</v>
+        <v>0.006150276903886477</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>27</v>
@@ -2495,19 +2495,19 @@
         <v>25098</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16626</v>
+        <v>17038</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38076</v>
+        <v>37872</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.003480502051125465</v>
+        <v>0.003480502051125466</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00230561828956806</v>
+        <v>0.002362776990206755</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005280159642264417</v>
+        <v>0.005251929927119339</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>42879</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31859</v>
+        <v>30868</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58698</v>
+        <v>58719</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0122576877769926</v>
+        <v>0.01225768777699259</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009107435007380824</v>
+        <v>0.008824287495994723</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01678008424827529</v>
+        <v>0.01678612748118945</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -2545,19 +2545,19 @@
         <v>21525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14216</v>
+        <v>14828</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30729</v>
+        <v>32372</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005797121923980346</v>
+        <v>0.005797121923980348</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003828614015953337</v>
+        <v>0.003993530089039164</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.008275813523979195</v>
+        <v>0.008718567907504804</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2566,19 +2566,19 @@
         <v>64404</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50298</v>
+        <v>49977</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81915</v>
+        <v>81793</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008931113073209773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006975071912823256</v>
+        <v>0.00693047149396847</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01135944256340705</v>
+        <v>0.01134258432815652</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>210190</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>180919</v>
+        <v>178992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>244818</v>
+        <v>245112</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.06008695420431312</v>
+        <v>0.06008695420431311</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05171925346480091</v>
+        <v>0.05116841118420952</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06998605696575243</v>
+        <v>0.07007027066594951</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>227</v>
@@ -2616,19 +2616,19 @@
         <v>168289</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>146107</v>
+        <v>146053</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>194463</v>
+        <v>194016</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04532366815887302</v>
+        <v>0.04532366815887303</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0393496809929175</v>
+        <v>0.03933495303246314</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05237280507534764</v>
+        <v>0.05225250103048678</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>410</v>
@@ -2637,19 +2637,19 @@
         <v>378479</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>339937</v>
+        <v>339457</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>418964</v>
+        <v>420783</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05248527115969671</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04714044654971473</v>
+        <v>0.04707398872678421</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05809948513475208</v>
+        <v>0.05835179014323693</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>772187</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>720520</v>
+        <v>719087</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>827144</v>
+        <v>829621</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2207451285071791</v>
+        <v>0.220745128507179</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2059748938472676</v>
+        <v>0.2055653407246993</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2364555189442946</v>
+        <v>0.2371638546335566</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1138</v>
@@ -2687,19 +2687,19 @@
         <v>744575</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>703658</v>
+        <v>704198</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>789996</v>
+        <v>787601</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2005290436353799</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1895093677194469</v>
+        <v>0.1896548113352848</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2127618572587685</v>
+        <v>0.2121170109302479</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1867</v>
@@ -2708,19 +2708,19 @@
         <v>1516762</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1449101</v>
+        <v>1454244</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1585907</v>
+        <v>1586074</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2103357745784209</v>
+        <v>0.210335774578421</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2009528734465256</v>
+        <v>0.2016661211521536</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2199243637565376</v>
+        <v>0.2199476123908442</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>2461459</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2402581</v>
+        <v>2401448</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2528074</v>
+        <v>2517065</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7036570945816252</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.686825833710474</v>
+        <v>0.6865019216666511</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7227003506496534</v>
+        <v>0.7195534144630547</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3918</v>
@@ -2758,19 +2758,19 @@
         <v>2764944</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2712618</v>
+        <v>2718694</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2811602</v>
+        <v>2808562</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7446554599487509</v>
+        <v>0.7446554599487514</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7305629795433276</v>
+        <v>0.7321992480277306</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7572213299613186</v>
+        <v>0.7564024256635749</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6302</v>
@@ -2779,19 +2779,19 @@
         <v>5226403</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5152246</v>
+        <v>5148796</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5300539</v>
+        <v>5295427</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.724767339137547</v>
+        <v>0.7247673391375472</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7144836295068384</v>
+        <v>0.7140052862934174</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7350480806170421</v>
+        <v>0.7343391490953848</v>
       </c>
     </row>
     <row r="33">
